--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value670.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value670.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.77657892036638</v>
+        <v>2.088703393936157</v>
       </c>
       <c r="B1">
-        <v>1.855992232983031</v>
+        <v>2.514638900756836</v>
       </c>
       <c r="C1">
-        <v>2.088372103397035</v>
+        <v>2.621349573135376</v>
       </c>
       <c r="D1">
-        <v>3.23372208121237</v>
+        <v>3.242945194244385</v>
       </c>
       <c r="E1">
-        <v>1.981037277481714</v>
+        <v>0.8074414134025574</v>
       </c>
     </row>
   </sheetData>
